--- a/word_analysis/excel_tables/clusters_revcon.xlsx
+++ b/word_analysis/excel_tables/clusters_revcon.xlsx
@@ -115,6 +115,9 @@
     <t>2-s2.0-85073943613</t>
   </si>
   <si>
+    <t>2-s2.0-85074359821</t>
+  </si>
+  <si>
     <t>2-s2.0-85074951546</t>
   </si>
   <si>
@@ -145,6 +148,9 @@
     <t>2-s2.0-85079546842</t>
   </si>
   <si>
+    <t>2-s2.0-85079556573</t>
+  </si>
+  <si>
     <t>2-s2.0-85079624572</t>
   </si>
   <si>
@@ -220,9 +226,6 @@
     <t>2-s2.0-85089491834</t>
   </si>
   <si>
-    <t>2-s2.0-85089516696</t>
-  </si>
-  <si>
     <t>2-s2.0-85089547760</t>
   </si>
   <si>
@@ -247,6 +250,9 @@
     <t>2-s2.0-85091474084</t>
   </si>
   <si>
+    <t>2-s2.0-85091803788</t>
+  </si>
+  <si>
     <t>2-s2.0-85092129142</t>
   </si>
   <si>
@@ -799,9 +805,6 @@
     <t>2-s2.0-85137889991</t>
   </si>
   <si>
-    <t>2-s2.0-85138327689</t>
-  </si>
-  <si>
     <t>2-s2.0-85138442175</t>
   </si>
   <si>
@@ -859,9 +862,6 @@
     <t>2-s2.0-85142174265</t>
   </si>
   <si>
-    <t>2-s2.0-85142413029</t>
-  </si>
-  <si>
     <t>2-s2.0-85142744328</t>
   </si>
   <si>
@@ -940,9 +940,6 @@
     <t>2-s2.0-85148549538</t>
   </si>
   <si>
-    <t>2-s2.0-85148853990</t>
-  </si>
-  <si>
     <t>2-s2.0-85149135068</t>
   </si>
   <si>
@@ -1141,6 +1138,9 @@
     <t>2-s2.0-85173960138</t>
   </si>
   <si>
+    <t>2-s2.0-85174173694</t>
+  </si>
+  <si>
     <t>2-s2.0-85175146454</t>
   </si>
   <si>
@@ -1198,12 +1198,12 @@
     <t>biotechnology, food, agriculture, crop, gene, production, protein, productivity, biology, hunger</t>
   </si>
   <si>
+    <t>student, curriculum, teaching, education, classroom, pedagogy, thinking, teacher, university, instruction</t>
+  </si>
+  <si>
     <t>farming, farm, crop, agriculture, soil, yield, food, irrigation, precision, fruit</t>
   </si>
   <si>
-    <t>student, curriculum, teaching, education, classroom, pedagogy, thinking, teacher, university, instruction</t>
-  </si>
-  <si>
     <t>3</t>
   </si>
   <si>
@@ -1222,12 +1222,12 @@
     <t>1</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>7</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>Biodiversity</t>
   </si>
   <si>
@@ -1246,12 +1246,12 @@
     <t>Biotechnology</t>
   </si>
   <si>
+    <t>Education</t>
+  </si>
+  <si>
     <t>Smart farming</t>
   </si>
   <si>
-    <t>Education</t>
-  </si>
-  <si>
     <t>6_c_2-s2.0-84856957416.txt</t>
   </si>
   <si>
@@ -1336,6 +1336,9 @@
     <t>3_c_Kassam_2020_2-s2.0-85073943613.txt</t>
   </si>
   <si>
+    <t>8_c_Eglash R._2020_2-s2.0-85089516696.txt</t>
+  </si>
+  <si>
     <t>11_c_Jo J.H._2019_2-s2.0-85074951546.txt</t>
   </si>
   <si>
@@ -1366,6 +1369,9 @@
     <t>2_c_Streich_2020_2-s2.0-85079546842.txt</t>
   </si>
   <si>
+    <t>8_r_Tussyadiah I._2020_2-s2.0-85138327689.txt</t>
+  </si>
+  <si>
     <t>9_r_Cioffi R._2020_2-s2.0-85079624572.txt</t>
   </si>
   <si>
@@ -1441,9 +1447,6 @@
     <t>13_r_Kour_2-s2.0-85089491834.txt</t>
   </si>
   <si>
-    <t>8_c_Eglash R._2020_2-s2.0-85089516696.txt</t>
-  </si>
-  <si>
     <t>2_r_Kakani_2020_2-s2.0-85089547760.txt</t>
   </si>
   <si>
@@ -1468,6 +1471,9 @@
     <t>3_c_Ho_2020_2-s2.0-85091474084.txt</t>
   </si>
   <si>
+    <t>16_c_Thiebes_2020_2-s2.0-85148853990.txt</t>
+  </si>
+  <si>
     <t>12_r_Jung_2021_2-s2.0-85092129142.txt</t>
   </si>
   <si>
@@ -2020,9 +2026,6 @@
     <t>4_c_el_hadraoui_2022_2-s2.0-85137889991.txt</t>
   </si>
   <si>
-    <t>8_r_Tussyadiah I._2020_2-s2.0-85138327689.txt</t>
-  </si>
-  <si>
     <t>3_r_Garvey_2022_2-s2.0-85138442175.txt</t>
   </si>
   <si>
@@ -2080,286 +2083,283 @@
     <t>13_c_Bai S._2022_2-s2.0-85142174265.txt</t>
   </si>
   <si>
+    <t>3_r_Islam_2020_2-s2.0-85142744328.txt</t>
+  </si>
+  <si>
+    <t>4_r_Ally_2022_2-s2.0-85143217815.txt</t>
+  </si>
+  <si>
+    <t>7_r_Masoudi Soltani S._2021_2-s2.0-85143764591.txt</t>
+  </si>
+  <si>
+    <t>2_c_Husaini_2023_2-s2.0-85144019334.txt</t>
+  </si>
+  <si>
+    <t>3_r_Kussmann_2022_2-s2.0-85144093692.txt</t>
+  </si>
+  <si>
+    <t>9_r_Farahzadi L._2023_2-s2.0-85144330184.txt</t>
+  </si>
+  <si>
+    <t>7_r_Cao X._2023_2-s2.0-85144556292.txt</t>
+  </si>
+  <si>
+    <t>7_r_Olabi A.G._2023_2-s2.0-85144595872.txt</t>
+  </si>
+  <si>
+    <t>2_c_Singh_2022_2-s2.0-85144829455.txt</t>
+  </si>
+  <si>
+    <t>3_r_Donisi_2022_2-s2.0-85144871876.txt</t>
+  </si>
+  <si>
+    <t>4_c_Uflewska_2022_2-s2.0-85144969439.txt</t>
+  </si>
+  <si>
+    <t>9_r_Saxena A._2023_2-s2.0-85145903509.txt</t>
+  </si>
+  <si>
+    <t>3_r_Kim_2023_2-s2.0-85146132498.txt</t>
+  </si>
+  <si>
+    <t>4_r_Flores-Vivar_2023_2-s2.0-85146338894.txt</t>
+  </si>
+  <si>
+    <t>9_r_Lazaroiu G._2022_2-s2.0-85146461996.txt</t>
+  </si>
+  <si>
+    <t>3_r_Ghosh_2023_2-s2.0-85146584488.txt</t>
+  </si>
+  <si>
+    <t>12_r_Akkem_2023_2-s2.0-85147249437.txt</t>
+  </si>
+  <si>
+    <t>2_c_Holzinger_2023_2-s2.0-85147548778.txt</t>
+  </si>
+  <si>
+    <t>2_c_Tyczewska_2023_2-s2.0-85147606396.txt</t>
+  </si>
+  <si>
+    <t>5_r_Lau_2023_2-s2.0-85147828722.txt</t>
+  </si>
+  <si>
+    <t>13_r_Zhao N._2023_2-s2.0-85147860630.txt</t>
+  </si>
+  <si>
+    <t>4_r_Shenkoya_2023_2-s2.0-85148024039.txt</t>
+  </si>
+  <si>
+    <t>3_r_Hogg_2023_2-s2.0-85148107421.txt</t>
+  </si>
+  <si>
+    <t>2_r_Chaudhary_2022_2-s2.0-85148346084.txt</t>
+  </si>
+  <si>
+    <t>4_c_Ramasamy_2023_2-s2.0-85148525500.txt</t>
+  </si>
+  <si>
+    <t>2_c_Helmy_2023_2-s2.0-85148549538.txt</t>
+  </si>
+  <si>
+    <t>2_c_Neethirajan_2023_2-s2.0-85149135068.txt</t>
+  </si>
+  <si>
+    <t>2_c_Marco-Detchart_2023_2-s2.0-85149721772.txt</t>
+  </si>
+  <si>
+    <t>6_r_2-s2.0-85149854857.txt</t>
+  </si>
+  <si>
+    <t>11_c_Al-Huthaifi R._2023_2-s2.0-85150425679.txt</t>
+  </si>
+  <si>
+    <t>12_r_Farghali_2023_2-s2.0-85150627139.txt</t>
+  </si>
+  <si>
+    <t>9_r_Waqar A._2023_2-s2.0-85150642974.txt</t>
+  </si>
+  <si>
+    <t>3_r_Vishwakarma_2023_2-s2.0-85150662898.txt</t>
+  </si>
+  <si>
+    <t>9_c_Arsiwala A._2023_2-s2.0-85150760522.txt</t>
+  </si>
+  <si>
+    <t>2_c_Said_2023_2-s2.0-85151004042.txt</t>
+  </si>
+  <si>
+    <t>3_r_MacIntyre_2023_2-s2.0-85151043111.txt</t>
+  </si>
+  <si>
+    <t>3_r_Hassani_2023_2-s2.0-85151186874.txt</t>
+  </si>
+  <si>
+    <t>11_r_Son T.H._2023_2-s2.0-85151241434.txt</t>
+  </si>
+  <si>
+    <t>4_r_Gupta_2023_2-s2.0-85151267667.txt</t>
+  </si>
+  <si>
+    <t>13_c_Visan M._2023_2-s2.0-85152423681.txt</t>
+  </si>
+  <si>
+    <t>4_r_Kooli_2023_2-s2.0-85152778885.txt</t>
+  </si>
+  <si>
+    <t>13_r_Yao Q._2023_2-s2.0-85152782518.txt</t>
+  </si>
+  <si>
+    <t>2_c_Mesías-Ruiz_2023_2-s2.0-85153335582.txt</t>
+  </si>
+  <si>
+    <t>13_r_Patel A._2023_2-s2.0-85153387252.txt</t>
+  </si>
+  <si>
+    <t>2_r_Hassoun_2023_2-s2.0-85153526124.txt</t>
+  </si>
+  <si>
+    <t>6_r_2-s2.0-85153562963.txt</t>
+  </si>
+  <si>
+    <t>4_r_Sinde_2023_2-s2.0-85153597077.txt</t>
+  </si>
+  <si>
+    <t>16_r_Kunkel_2023_2-s2.0-85171863246.txt</t>
+  </si>
+  <si>
+    <t>2_r_Sachithra_2023_2-s2.0-85154025061.txt</t>
+  </si>
+  <si>
+    <t>13_c_Danish M.S.S._2023_2-s2.0-85156101747.txt</t>
+  </si>
+  <si>
+    <t>4_r_Aguilar-Esteva_2023_2-s2.0-85156127798.txt</t>
+  </si>
+  <si>
+    <t>3_r_Kondylakis_2023_2-s2.0-85158006968.txt</t>
+  </si>
+  <si>
+    <t>9_r_Psarommatis F._2023_2-s2.0-85158061141.txt</t>
+  </si>
+  <si>
+    <t>13_r_Sharma V._2023_2-s2.0-85159110007.txt</t>
+  </si>
+  <si>
+    <t>7_r_Yadav A._2023_2-s2.0-85159217562.txt</t>
+  </si>
+  <si>
+    <t>2_c_Pandey_2023_2-s2.0-85160046051.txt</t>
+  </si>
+  <si>
+    <t>2_r_Bretas_2023_2-s2.0-85160079038.txt</t>
+  </si>
+  <si>
+    <t>16_c_Bossert_2023_2-s2.0-85179130238.txt</t>
+  </si>
+  <si>
+    <t>2_r_Taneja_2023_2-s2.0-85160301488.txt</t>
+  </si>
+  <si>
+    <t>2_r_Taneja_2023_2-s2.0-85160448984.txt</t>
+  </si>
+  <si>
+    <t>3_r_Pinnock_2023_2-s2.0-85160874121.txt</t>
+  </si>
+  <si>
+    <t>16_c_Androniceanu_2023_2-s2.0-85149223947.txt</t>
+  </si>
+  <si>
+    <t>3_r_Ketter_2022_2-s2.0-85161701396.txt</t>
+  </si>
+  <si>
+    <t>4_c_Pang_2023_2-s2.0-85161860464.txt</t>
+  </si>
+  <si>
+    <t>4_r_Marquez_2023_2-s2.0-85162078243.txt</t>
+  </si>
+  <si>
+    <t>2_c_Jararweh_2023_2-s2.0-85162138528.txt</t>
+  </si>
+  <si>
+    <t>3_r_Javed_2023_2-s2.0-85162865874.txt</t>
+  </si>
+  <si>
+    <t>3_c_Jia_2023_2-s2.0-85163125020.txt</t>
+  </si>
+  <si>
+    <t>13_r_Chen L._2023_2-s2.0-85163134788.txt</t>
+  </si>
+  <si>
+    <t>13_r_Jain H._2023_2-s2.0-85165299517.txt</t>
+  </si>
+  <si>
+    <t>13_r_Navarra D._2023_2-s2.0-85165596412.txt</t>
+  </si>
+  <si>
+    <t>4_c_Cacciuttolo_2023_2-s2.0-85166235503.txt</t>
+  </si>
+  <si>
+    <t>1_r_Cabanillas-Carbonell.txt</t>
+  </si>
+  <si>
+    <t>2_r_Konfo_2023_2-s2.0-85167429887.txt</t>
+  </si>
+  <si>
+    <t>13_r_Ahmed Z._2023_2-s2.0-85168681014.txt</t>
+  </si>
+  <si>
+    <t>2_c_Neethirajan_2023_2-s2.0-85168713465.txt</t>
+  </si>
+  <si>
+    <t>2_r_Aznan_2023_2-s2.0-85168879976.txt</t>
+  </si>
+  <si>
+    <t>4_r_Lin_2023_2-s2.0-85168920298.txt</t>
+  </si>
+  <si>
+    <t>4_r_Alshahrani_2023_2-s2.0-85168959579.txt</t>
+  </si>
+  <si>
+    <t>4_r_Kamalov_2023_2-s2.0-85169091275.txt</t>
+  </si>
+  <si>
+    <t>4_r_Badawi_2023_2-s2.0-85169806174.txt</t>
+  </si>
+  <si>
+    <t>2_r_Balkrishna_2023_2-s2.0-85170425130.txt</t>
+  </si>
+  <si>
+    <t>13_c_Rauniyar A._2023_2-s2.0-85171730109.txt</t>
+  </si>
+  <si>
+    <t>2_c_Sudhakar_2023_2-s2.0-85171869070.txt</t>
+  </si>
+  <si>
+    <t>4_c_George_2023_2-s2.0-85172088492.txt</t>
+  </si>
+  <si>
+    <t>4_c_Mahariya_20232-s2.0-85172483993.txt</t>
+  </si>
+  <si>
+    <t>3_c_Salem_2023_2-s2.0-85172726264.txt</t>
+  </si>
+  <si>
+    <t>3_r_Qiu_2023_2-s2.0-85172999993.txt</t>
+  </si>
+  <si>
+    <t>2_r_Hasteer_2023_2-s2.0-85173044530.txt</t>
+  </si>
+  <si>
+    <t>4_c_Ooi_2023_2-s2.0-85173499156.txt</t>
+  </si>
+  <si>
+    <t>2_r_Ataei_2023_2-s2.0-85173661221.txt</t>
+  </si>
+  <si>
+    <t>13_c_Hou M._2023_2-s2.0-85173960138.txt</t>
+  </si>
+  <si>
     <t>8_r_Peng Y._2023_2-s2.0-85142413029.txt</t>
-  </si>
-  <si>
-    <t>3_r_Islam_2020_2-s2.0-85142744328.txt</t>
-  </si>
-  <si>
-    <t>4_r_Ally_2022_2-s2.0-85143217815.txt</t>
-  </si>
-  <si>
-    <t>7_r_Masoudi Soltani S._2021_2-s2.0-85143764591.txt</t>
-  </si>
-  <si>
-    <t>2_c_Husaini_2023_2-s2.0-85144019334.txt</t>
-  </si>
-  <si>
-    <t>3_r_Kussmann_2022_2-s2.0-85144093692.txt</t>
-  </si>
-  <si>
-    <t>9_r_Farahzadi L._2023_2-s2.0-85144330184.txt</t>
-  </si>
-  <si>
-    <t>7_r_Cao X._2023_2-s2.0-85144556292.txt</t>
-  </si>
-  <si>
-    <t>7_r_Olabi A.G._2023_2-s2.0-85144595872.txt</t>
-  </si>
-  <si>
-    <t>2_c_Singh_2022_2-s2.0-85144829455.txt</t>
-  </si>
-  <si>
-    <t>3_r_Donisi_2022_2-s2.0-85144871876.txt</t>
-  </si>
-  <si>
-    <t>4_c_Uflewska_2022_2-s2.0-85144969439.txt</t>
-  </si>
-  <si>
-    <t>9_r_Saxena A._2023_2-s2.0-85145903509.txt</t>
-  </si>
-  <si>
-    <t>3_r_Kim_2023_2-s2.0-85146132498.txt</t>
-  </si>
-  <si>
-    <t>4_r_Flores-Vivar_2023_2-s2.0-85146338894.txt</t>
-  </si>
-  <si>
-    <t>9_r_Lazaroiu G._2022_2-s2.0-85146461996.txt</t>
-  </si>
-  <si>
-    <t>3_r_Ghosh_2023_2-s2.0-85146584488.txt</t>
-  </si>
-  <si>
-    <t>12_r_Akkem_2023_2-s2.0-85147249437.txt</t>
-  </si>
-  <si>
-    <t>2_c_Holzinger_2023_2-s2.0-85147548778.txt</t>
-  </si>
-  <si>
-    <t>2_c_Tyczewska_2023_2-s2.0-85147606396.txt</t>
-  </si>
-  <si>
-    <t>5_r_Lau_2023_2-s2.0-85147828722.txt</t>
-  </si>
-  <si>
-    <t>13_r_Zhao N._2023_2-s2.0-85147860630.txt</t>
-  </si>
-  <si>
-    <t>4_r_Shenkoya_2023_2-s2.0-85148024039.txt</t>
-  </si>
-  <si>
-    <t>3_r_Hogg_2023_2-s2.0-85148107421.txt</t>
-  </si>
-  <si>
-    <t>2_r_Chaudhary_2022_2-s2.0-85148346084.txt</t>
-  </si>
-  <si>
-    <t>4_c_Ramasamy_2023_2-s2.0-85148525500.txt</t>
-  </si>
-  <si>
-    <t>2_c_Helmy_2023_2-s2.0-85148549538.txt</t>
-  </si>
-  <si>
-    <t>16_c_Thiebes_2020_2-s2.0-85148853990.txt</t>
-  </si>
-  <si>
-    <t>2_c_Neethirajan_2023_2-s2.0-85149135068.txt</t>
-  </si>
-  <si>
-    <t>2_c_Marco-Detchart_2023_2-s2.0-85149721772.txt</t>
-  </si>
-  <si>
-    <t>6_r_2-s2.0-85149854857.txt</t>
-  </si>
-  <si>
-    <t>11_c_Al-Huthaifi R._2023_2-s2.0-85150425679.txt</t>
-  </si>
-  <si>
-    <t>12_r_Farghali_2023_2-s2.0-85150627139.txt</t>
-  </si>
-  <si>
-    <t>9_r_Waqar A._2023_2-s2.0-85150642974.txt</t>
-  </si>
-  <si>
-    <t>3_r_Vishwakarma_2023_2-s2.0-85150662898.txt</t>
-  </si>
-  <si>
-    <t>9_c_Arsiwala A._2023_2-s2.0-85150760522.txt</t>
-  </si>
-  <si>
-    <t>2_c_Said_2023_2-s2.0-85151004042.txt</t>
-  </si>
-  <si>
-    <t>3_r_MacIntyre_2023_2-s2.0-85151043111.txt</t>
-  </si>
-  <si>
-    <t>3_r_Hassani_2023_2-s2.0-85151186874.txt</t>
-  </si>
-  <si>
-    <t>11_r_Son T.H._2023_2-s2.0-85151241434.txt</t>
-  </si>
-  <si>
-    <t>4_r_Gupta_2023_2-s2.0-85151267667.txt</t>
-  </si>
-  <si>
-    <t>13_c_Visan M._2023_2-s2.0-85152423681.txt</t>
-  </si>
-  <si>
-    <t>4_r_Kooli_2023_2-s2.0-85152778885.txt</t>
-  </si>
-  <si>
-    <t>13_r_Yao Q._2023_2-s2.0-85152782518.txt</t>
-  </si>
-  <si>
-    <t>2_c_Mesías-Ruiz_2023_2-s2.0-85153335582.txt</t>
-  </si>
-  <si>
-    <t>13_r_Patel A._2023_2-s2.0-85153387252.txt</t>
-  </si>
-  <si>
-    <t>2_r_Hassoun_2023_2-s2.0-85153526124.txt</t>
-  </si>
-  <si>
-    <t>6_r_2-s2.0-85153562963.txt</t>
-  </si>
-  <si>
-    <t>4_r_Sinde_2023_2-s2.0-85153597077.txt</t>
-  </si>
-  <si>
-    <t>16_r_Kunkel_2023_2-s2.0-85171863246.txt</t>
-  </si>
-  <si>
-    <t>2_r_Sachithra_2023_2-s2.0-85154025061.txt</t>
-  </si>
-  <si>
-    <t>13_c_Danish M.S.S._2023_2-s2.0-85156101747.txt</t>
-  </si>
-  <si>
-    <t>4_r_Aguilar-Esteva_2023_2-s2.0-85156127798.txt</t>
-  </si>
-  <si>
-    <t>3_r_Kondylakis_2023_2-s2.0-85158006968.txt</t>
-  </si>
-  <si>
-    <t>9_r_Psarommatis F._2023_2-s2.0-85158061141.txt</t>
-  </si>
-  <si>
-    <t>13_r_Sharma V._2023_2-s2.0-85159110007.txt</t>
-  </si>
-  <si>
-    <t>7_r_Yadav A._2023_2-s2.0-85159217562.txt</t>
-  </si>
-  <si>
-    <t>2_c_Pandey_2023_2-s2.0-85160046051.txt</t>
-  </si>
-  <si>
-    <t>2_r_Bretas_2023_2-s2.0-85160079038.txt</t>
-  </si>
-  <si>
-    <t>16_c_Bossert_2023_2-s2.0-85179130238.txt</t>
-  </si>
-  <si>
-    <t>2_r_Taneja_2023_2-s2.0-85160301488.txt</t>
-  </si>
-  <si>
-    <t>2_r_Taneja_2023_2-s2.0-85160448984.txt</t>
-  </si>
-  <si>
-    <t>3_r_Pinnock_2023_2-s2.0-85160874121.txt</t>
-  </si>
-  <si>
-    <t>16_c_Androniceanu_2023_2-s2.0-85149223947.txt</t>
-  </si>
-  <si>
-    <t>3_r_Ketter_2022_2-s2.0-85161701396.txt</t>
-  </si>
-  <si>
-    <t>4_c_Pang_2023_2-s2.0-85161860464.txt</t>
-  </si>
-  <si>
-    <t>4_r_Marquez_2023_2-s2.0-85162078243.txt</t>
-  </si>
-  <si>
-    <t>2_c_Jararweh_2023_2-s2.0-85162138528.txt</t>
-  </si>
-  <si>
-    <t>3_r_Javed_2023_2-s2.0-85162865874.txt</t>
-  </si>
-  <si>
-    <t>3_c_Jia_2023_2-s2.0-85163125020.txt</t>
-  </si>
-  <si>
-    <t>13_r_Chen L._2023_2-s2.0-85163134788.txt</t>
-  </si>
-  <si>
-    <t>13_r_Jain H._2023_2-s2.0-85165299517.txt</t>
-  </si>
-  <si>
-    <t>13_r_Navarra D._2023_2-s2.0-85165596412.txt</t>
-  </si>
-  <si>
-    <t>4_c_Cacciuttolo_2023_2-s2.0-85166235503.txt</t>
-  </si>
-  <si>
-    <t>1_r_Cabanillas-Carbonell.txt</t>
-  </si>
-  <si>
-    <t>2_r_Konfo_2023_2-s2.0-85167429887.txt</t>
-  </si>
-  <si>
-    <t>13_r_Ahmed Z._2023_2-s2.0-85168681014.txt</t>
-  </si>
-  <si>
-    <t>2_c_Neethirajan_2023_2-s2.0-85168713465.txt</t>
-  </si>
-  <si>
-    <t>2_r_Aznan_2023_2-s2.0-85168879976.txt</t>
-  </si>
-  <si>
-    <t>4_r_Lin_2023_2-s2.0-85168920298.txt</t>
-  </si>
-  <si>
-    <t>4_r_Alshahrani_2023_2-s2.0-85168959579.txt</t>
-  </si>
-  <si>
-    <t>4_r_Kamalov_2023_2-s2.0-85169091275.txt</t>
-  </si>
-  <si>
-    <t>4_r_Badawi_2023_2-s2.0-85169806174.txt</t>
-  </si>
-  <si>
-    <t>2_r_Balkrishna_2023_2-s2.0-85170425130.txt</t>
-  </si>
-  <si>
-    <t>13_c_Rauniyar A._2023_2-s2.0-85171730109.txt</t>
-  </si>
-  <si>
-    <t>2_c_Sudhakar_2023_2-s2.0-85171869070.txt</t>
-  </si>
-  <si>
-    <t>4_c_George_2023_2-s2.0-85172088492.txt</t>
-  </si>
-  <si>
-    <t>4_c_Mahariya_20232-s2.0-85172483993.txt</t>
-  </si>
-  <si>
-    <t>3_c_Salem_2023_2-s2.0-85172726264.txt</t>
-  </si>
-  <si>
-    <t>3_r_Qiu_2023_2-s2.0-85172999993.txt</t>
-  </si>
-  <si>
-    <t>2_r_Hasteer_2023_2-s2.0-85173044530.txt</t>
-  </si>
-  <si>
-    <t>4_c_Ooi_2023_2-s2.0-85173499156.txt</t>
-  </si>
-  <si>
-    <t>2_r_Ataei_2023_2-s2.0-85173661221.txt</t>
-  </si>
-  <si>
-    <t>13_c_Hou M._2023_2-s2.0-85173960138.txt</t>
   </si>
   <si>
     <t>2_r_Alahmad_2023_2-s2.0-85175146454.txt</t>
@@ -3260,13 +3260,13 @@
         <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="C30" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="D30" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="E30" t="s">
         <v>440</v>
@@ -3277,13 +3277,13 @@
         <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C31" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="D31" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="E31" t="s">
         <v>441</v>
@@ -3294,13 +3294,13 @@
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="C32" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="D32" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="E32" t="s">
         <v>442</v>
@@ -3311,13 +3311,13 @@
         <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="C33" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="D33" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="E33" t="s">
         <v>443</v>
@@ -3328,13 +3328,13 @@
         <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C34" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D34" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E34" t="s">
         <v>444</v>
@@ -3345,13 +3345,13 @@
         <v>38</v>
       </c>
       <c r="B35" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C35" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D35" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="E35" t="s">
         <v>445</v>
@@ -3362,13 +3362,13 @@
         <v>39</v>
       </c>
       <c r="B36" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C36" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D36" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E36" t="s">
         <v>446</v>
@@ -3379,13 +3379,13 @@
         <v>40</v>
       </c>
       <c r="B37" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="C37" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="D37" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="E37" t="s">
         <v>447</v>
@@ -3396,13 +3396,13 @@
         <v>41</v>
       </c>
       <c r="B38" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C38" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D38" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E38" t="s">
         <v>448</v>
@@ -3413,13 +3413,13 @@
         <v>42</v>
       </c>
       <c r="B39" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="C39" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="D39" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="E39" t="s">
         <v>449</v>
@@ -3430,13 +3430,13 @@
         <v>43</v>
       </c>
       <c r="B40" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="C40" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="D40" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="E40" t="s">
         <v>450</v>
@@ -3447,13 +3447,13 @@
         <v>44</v>
       </c>
       <c r="B41" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C41" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D41" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E41" t="s">
         <v>451</v>
@@ -3464,13 +3464,13 @@
         <v>45</v>
       </c>
       <c r="B42" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="C42" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="D42" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="E42" t="s">
         <v>452</v>
@@ -3515,13 +3515,13 @@
         <v>48</v>
       </c>
       <c r="B45" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="C45" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="D45" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="E45" t="s">
         <v>455</v>
@@ -3532,13 +3532,13 @@
         <v>49</v>
       </c>
       <c r="B46" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="C46" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="D46" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="E46" t="s">
         <v>456</v>
@@ -3566,13 +3566,13 @@
         <v>51</v>
       </c>
       <c r="B48" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="C48" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="D48" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="E48" t="s">
         <v>458</v>
@@ -3600,13 +3600,13 @@
         <v>53</v>
       </c>
       <c r="B50" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="C50" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="D50" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="E50" t="s">
         <v>460</v>
@@ -3617,13 +3617,13 @@
         <v>54</v>
       </c>
       <c r="B51" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C51" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D51" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E51" t="s">
         <v>461</v>
@@ -3634,13 +3634,13 @@
         <v>55</v>
       </c>
       <c r="B52" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C52" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="D52" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="E52" t="s">
         <v>462</v>
@@ -3651,13 +3651,13 @@
         <v>56</v>
       </c>
       <c r="B53" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="C53" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="D53" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="E53" t="s">
         <v>463</v>
@@ -3668,13 +3668,13 @@
         <v>57</v>
       </c>
       <c r="B54" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="C54" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="D54" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="E54" t="s">
         <v>464</v>
@@ -3685,13 +3685,13 @@
         <v>58</v>
       </c>
       <c r="B55" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C55" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="D55" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="E55" t="s">
         <v>465</v>
@@ -3719,13 +3719,13 @@
         <v>60</v>
       </c>
       <c r="B57" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="C57" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="D57" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="E57" t="s">
         <v>467</v>
@@ -3736,13 +3736,13 @@
         <v>61</v>
       </c>
       <c r="B58" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C58" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="D58" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="E58" t="s">
         <v>468</v>
@@ -3753,13 +3753,13 @@
         <v>62</v>
       </c>
       <c r="B59" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C59" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D59" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="E59" t="s">
         <v>469</v>
@@ -3770,13 +3770,13 @@
         <v>63</v>
       </c>
       <c r="B60" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="C60" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D60" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="E60" t="s">
         <v>470</v>
@@ -3787,13 +3787,13 @@
         <v>64</v>
       </c>
       <c r="B61" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="C61" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="D61" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="E61" t="s">
         <v>471</v>
@@ -3804,13 +3804,13 @@
         <v>65</v>
       </c>
       <c r="B62" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C62" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="D62" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E62" t="s">
         <v>472</v>
@@ -3821,13 +3821,13 @@
         <v>66</v>
       </c>
       <c r="B63" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C63" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D63" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="E63" t="s">
         <v>473</v>
@@ -3838,13 +3838,13 @@
         <v>67</v>
       </c>
       <c r="B64" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C64" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D64" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="E64" t="s">
         <v>474</v>
@@ -3855,13 +3855,13 @@
         <v>68</v>
       </c>
       <c r="B65" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C65" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="D65" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="E65" t="s">
         <v>475</v>
@@ -3872,13 +3872,13 @@
         <v>69</v>
       </c>
       <c r="B66" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="C66" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="D66" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="E66" t="s">
         <v>476</v>
@@ -3889,13 +3889,13 @@
         <v>70</v>
       </c>
       <c r="B67" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C67" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D67" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E67" t="s">
         <v>477</v>
@@ -3906,13 +3906,13 @@
         <v>71</v>
       </c>
       <c r="B68" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="C68" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="D68" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="E68" t="s">
         <v>478</v>
@@ -3923,13 +3923,13 @@
         <v>72</v>
       </c>
       <c r="B69" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="C69" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D69" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="E69" t="s">
         <v>479</v>
@@ -3940,13 +3940,13 @@
         <v>73</v>
       </c>
       <c r="B70" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="C70" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="D70" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="E70" t="s">
         <v>480</v>
@@ -3957,13 +3957,13 @@
         <v>74</v>
       </c>
       <c r="B71" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="C71" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="D71" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="E71" t="s">
         <v>481</v>
@@ -3974,13 +3974,13 @@
         <v>75</v>
       </c>
       <c r="B72" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C72" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="D72" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="E72" t="s">
         <v>482</v>
@@ -4008,13 +4008,13 @@
         <v>77</v>
       </c>
       <c r="B74" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C74" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D74" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E74" t="s">
         <v>484</v>
@@ -4025,13 +4025,13 @@
         <v>78</v>
       </c>
       <c r="B75" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="C75" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="D75" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="E75" t="s">
         <v>485</v>
@@ -4042,13 +4042,13 @@
         <v>79</v>
       </c>
       <c r="B76" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="C76" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="D76" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="E76" t="s">
         <v>486</v>
@@ -4076,13 +4076,13 @@
         <v>81</v>
       </c>
       <c r="B78" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="C78" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="D78" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="E78" t="s">
         <v>488</v>
@@ -4093,13 +4093,13 @@
         <v>82</v>
       </c>
       <c r="B79" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="C79" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="D79" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="E79" t="s">
         <v>489</v>
@@ -4110,13 +4110,13 @@
         <v>83</v>
       </c>
       <c r="B80" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="C80" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="D80" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="E80" t="s">
         <v>490</v>
@@ -4127,13 +4127,13 @@
         <v>84</v>
       </c>
       <c r="B81" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="C81" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="D81" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="E81" t="s">
         <v>491</v>
@@ -4161,13 +4161,13 @@
         <v>86</v>
       </c>
       <c r="B83" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C83" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D83" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E83" t="s">
         <v>493</v>
@@ -4195,13 +4195,13 @@
         <v>88</v>
       </c>
       <c r="B85" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C85" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D85" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E85" t="s">
         <v>495</v>
@@ -4212,13 +4212,13 @@
         <v>89</v>
       </c>
       <c r="B86" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="C86" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="D86" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="E86" t="s">
         <v>496</v>
@@ -4229,13 +4229,13 @@
         <v>90</v>
       </c>
       <c r="B87" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="C87" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="D87" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="E87" t="s">
         <v>497</v>
@@ -4246,13 +4246,13 @@
         <v>91</v>
       </c>
       <c r="B88" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C88" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D88" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="E88" t="s">
         <v>498</v>
@@ -4263,13 +4263,13 @@
         <v>92</v>
       </c>
       <c r="B89" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="C89" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="D89" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="E89" t="s">
         <v>499</v>
@@ -4280,13 +4280,13 @@
         <v>93</v>
       </c>
       <c r="B90" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C90" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D90" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="E90" t="s">
         <v>500</v>
@@ -4297,13 +4297,13 @@
         <v>94</v>
       </c>
       <c r="B91" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="C91" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="D91" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="E91" t="s">
         <v>501</v>
@@ -4314,13 +4314,13 @@
         <v>95</v>
       </c>
       <c r="B92" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="C92" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="D92" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="E92" t="s">
         <v>502</v>
@@ -4331,13 +4331,13 @@
         <v>96</v>
       </c>
       <c r="B93" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="C93" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="D93" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="E93" t="s">
         <v>503</v>
@@ -4348,13 +4348,13 @@
         <v>97</v>
       </c>
       <c r="B94" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C94" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="D94" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="E94" t="s">
         <v>504</v>
@@ -4365,13 +4365,13 @@
         <v>98</v>
       </c>
       <c r="B95" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C95" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D95" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="E95" t="s">
         <v>505</v>
@@ -4382,13 +4382,13 @@
         <v>99</v>
       </c>
       <c r="B96" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="C96" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="D96" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="E96" t="s">
         <v>506</v>
@@ -4399,13 +4399,13 @@
         <v>100</v>
       </c>
       <c r="B97" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C97" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D97" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E97" t="s">
         <v>507</v>
@@ -4416,13 +4416,13 @@
         <v>101</v>
       </c>
       <c r="B98" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="C98" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="D98" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="E98" t="s">
         <v>508</v>
@@ -4433,13 +4433,13 @@
         <v>102</v>
       </c>
       <c r="B99" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="C99" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="D99" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="E99" t="s">
         <v>509</v>
@@ -4467,13 +4467,13 @@
         <v>104</v>
       </c>
       <c r="B101" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="C101" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="D101" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="E101" t="s">
         <v>511</v>
@@ -4484,13 +4484,13 @@
         <v>105</v>
       </c>
       <c r="B102" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C102" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D102" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="E102" t="s">
         <v>512</v>
@@ -4501,13 +4501,13 @@
         <v>106</v>
       </c>
       <c r="B103" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="C103" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D103" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="E103" t="s">
         <v>513</v>
@@ -4518,13 +4518,13 @@
         <v>107</v>
       </c>
       <c r="B104" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="C104" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="D104" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="E104" t="s">
         <v>514</v>
@@ -4535,13 +4535,13 @@
         <v>108</v>
       </c>
       <c r="B105" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="C105" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="D105" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="E105" t="s">
         <v>515</v>
@@ -4552,13 +4552,13 @@
         <v>109</v>
       </c>
       <c r="B106" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C106" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D106" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="E106" t="s">
         <v>516</v>
@@ -4569,13 +4569,13 @@
         <v>110</v>
       </c>
       <c r="B107" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="C107" t="s">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="D107" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="E107" t="s">
         <v>517</v>
@@ -4586,13 +4586,13 @@
         <v>111</v>
       </c>
       <c r="B108" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C108" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D108" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="E108" t="s">
         <v>518</v>
@@ -4603,13 +4603,13 @@
         <v>112</v>
       </c>
       <c r="B109" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="C109" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="D109" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="E109" t="s">
         <v>519</v>
@@ -4620,13 +4620,13 @@
         <v>113</v>
       </c>
       <c r="B110" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="C110" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="D110" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="E110" t="s">
         <v>520</v>
@@ -4654,13 +4654,13 @@
         <v>115</v>
       </c>
       <c r="B112" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C112" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="D112" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="E112" t="s">
         <v>522</v>
@@ -4671,13 +4671,13 @@
         <v>116</v>
       </c>
       <c r="B113" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="C113" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="D113" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="E113" t="s">
         <v>523</v>
@@ -4688,13 +4688,13 @@
         <v>117</v>
       </c>
       <c r="B114" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="C114" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="D114" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="E114" t="s">
         <v>524</v>
@@ -4705,13 +4705,13 @@
         <v>118</v>
       </c>
       <c r="B115" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C115" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D115" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="E115" t="s">
         <v>525</v>
@@ -4739,13 +4739,13 @@
         <v>120</v>
       </c>
       <c r="B117" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="C117" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D117" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="E117" t="s">
         <v>527</v>
@@ -4756,13 +4756,13 @@
         <v>121</v>
       </c>
       <c r="B118" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="C118" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="D118" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="E118" t="s">
         <v>528</v>
@@ -4773,13 +4773,13 @@
         <v>122</v>
       </c>
       <c r="B119" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C119" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D119" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E119" t="s">
         <v>529</v>
@@ -4807,13 +4807,13 @@
         <v>124</v>
       </c>
       <c r="B121" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C121" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D121" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="E121" t="s">
         <v>531</v>
@@ -4824,13 +4824,13 @@
         <v>125</v>
       </c>
       <c r="B122" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="C122" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="D122" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="E122" t="s">
         <v>532</v>
@@ -4841,13 +4841,13 @@
         <v>126</v>
       </c>
       <c r="B123" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C123" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D123" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="E123" t="s">
         <v>533</v>
@@ -4858,13 +4858,13 @@
         <v>127</v>
       </c>
       <c r="B124" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="C124" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="D124" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="E124" t="s">
         <v>534</v>
@@ -4875,13 +4875,13 @@
         <v>128</v>
       </c>
       <c r="B125" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="C125" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="D125" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="E125" t="s">
         <v>535</v>
@@ -4892,13 +4892,13 @@
         <v>129</v>
       </c>
       <c r="B126" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="C126" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D126" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="E126" t="s">
         <v>536</v>
@@ -4909,13 +4909,13 @@
         <v>130</v>
       </c>
       <c r="B127" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="C127" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="D127" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="E127" t="s">
         <v>537</v>
@@ -4926,13 +4926,13 @@
         <v>131</v>
       </c>
       <c r="B128" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="C128" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="D128" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="E128" t="s">
         <v>538</v>
@@ -4943,13 +4943,13 @@
         <v>132</v>
       </c>
       <c r="B129" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C129" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="D129" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E129" t="s">
         <v>539</v>
@@ -4977,13 +4977,13 @@
         <v>134</v>
       </c>
       <c r="B131" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="C131" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="D131" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="E131" t="s">
         <v>541</v>
@@ -4994,13 +4994,13 @@
         <v>135</v>
       </c>
       <c r="B132" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C132" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="D132" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E132" t="s">
         <v>542</v>
@@ -5011,13 +5011,13 @@
         <v>136</v>
       </c>
       <c r="B133" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="C133" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="D133" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="E133" t="s">
         <v>543</v>
@@ -5028,13 +5028,13 @@
         <v>137</v>
       </c>
       <c r="B134" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="C134" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="D134" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="E134" t="s">
         <v>544</v>
@@ -5045,13 +5045,13 @@
         <v>138</v>
       </c>
       <c r="B135" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C135" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D135" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E135" t="s">
         <v>545</v>
@@ -5062,13 +5062,13 @@
         <v>139</v>
       </c>
       <c r="B136" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="C136" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="D136" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="E136" t="s">
         <v>546</v>
@@ -5096,13 +5096,13 @@
         <v>141</v>
       </c>
       <c r="B138" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="C138" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="D138" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="E138" t="s">
         <v>548</v>
@@ -5113,13 +5113,13 @@
         <v>142</v>
       </c>
       <c r="B139" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C139" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D139" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="E139" t="s">
         <v>549</v>
@@ -5130,13 +5130,13 @@
         <v>143</v>
       </c>
       <c r="B140" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C140" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D140" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="E140" t="s">
         <v>550</v>
@@ -5147,13 +5147,13 @@
         <v>144</v>
       </c>
       <c r="B141" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="C141" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="D141" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="E141" t="s">
         <v>551</v>
@@ -5164,13 +5164,13 @@
         <v>145</v>
       </c>
       <c r="B142" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C142" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="D142" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="E142" t="s">
         <v>552</v>
@@ -5181,13 +5181,13 @@
         <v>146</v>
       </c>
       <c r="B143" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C143" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D143" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E143" t="s">
         <v>553</v>
@@ -5232,13 +5232,13 @@
         <v>149</v>
       </c>
       <c r="B146" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C146" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D146" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E146" t="s">
         <v>556</v>
@@ -5266,13 +5266,13 @@
         <v>151</v>
       </c>
       <c r="B148" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C148" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D148" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E148" t="s">
         <v>558</v>
@@ -5283,13 +5283,13 @@
         <v>152</v>
       </c>
       <c r="B149" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="C149" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="D149" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="E149" t="s">
         <v>559</v>
@@ -5300,13 +5300,13 @@
         <v>153</v>
       </c>
       <c r="B150" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C150" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="D150" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E150" t="s">
         <v>560</v>
@@ -5317,13 +5317,13 @@
         <v>154</v>
       </c>
       <c r="B151" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="C151" t="s">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="D151" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="E151" t="s">
         <v>561</v>
@@ -5334,13 +5334,13 @@
         <v>155</v>
       </c>
       <c r="B152" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="C152" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="D152" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="E152" t="s">
         <v>562</v>
@@ -5385,13 +5385,13 @@
         <v>158</v>
       </c>
       <c r="B155" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="C155" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="D155" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="E155" t="s">
         <v>565</v>
@@ -5402,13 +5402,13 @@
         <v>159</v>
       </c>
       <c r="B156" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="C156" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="D156" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="E156" t="s">
         <v>566</v>
@@ -5419,13 +5419,13 @@
         <v>160</v>
       </c>
       <c r="B157" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C157" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="D157" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="E157" t="s">
         <v>567</v>
@@ -5436,13 +5436,13 @@
         <v>161</v>
       </c>
       <c r="B158" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="C158" t="s">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="D158" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="E158" t="s">
         <v>568</v>
@@ -5453,13 +5453,13 @@
         <v>162</v>
       </c>
       <c r="B159" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C159" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="D159" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="E159" t="s">
         <v>569</v>
@@ -5487,13 +5487,13 @@
         <v>164</v>
       </c>
       <c r="B161" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="C161" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="D161" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="E161" t="s">
         <v>571</v>
@@ -5504,13 +5504,13 @@
         <v>165</v>
       </c>
       <c r="B162" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="C162" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="D162" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="E162" t="s">
         <v>572</v>
@@ -5538,13 +5538,13 @@
         <v>167</v>
       </c>
       <c r="B164" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="C164" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="D164" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="E164" t="s">
         <v>574</v>
@@ -5555,13 +5555,13 @@
         <v>168</v>
       </c>
       <c r="B165" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C165" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D165" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="E165" t="s">
         <v>575</v>
@@ -5572,13 +5572,13 @@
         <v>169</v>
       </c>
       <c r="B166" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="C166" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D166" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="E166" t="s">
         <v>576</v>
@@ -5589,13 +5589,13 @@
         <v>170</v>
       </c>
       <c r="B167" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C167" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D167" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E167" t="s">
         <v>577</v>
@@ -5606,13 +5606,13 @@
         <v>171</v>
       </c>
       <c r="B168" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C168" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D168" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="E168" t="s">
         <v>578</v>
@@ -5623,13 +5623,13 @@
         <v>172</v>
       </c>
       <c r="B169" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="C169" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="D169" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="E169" t="s">
         <v>579</v>
@@ -5640,13 +5640,13 @@
         <v>173</v>
       </c>
       <c r="B170" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="C170" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="D170" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="E170" t="s">
         <v>580</v>
@@ -5657,13 +5657,13 @@
         <v>174</v>
       </c>
       <c r="B171" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="C171" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="D171" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="E171" t="s">
         <v>581</v>
@@ -5674,13 +5674,13 @@
         <v>175</v>
       </c>
       <c r="B172" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="C172" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="D172" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="E172" t="s">
         <v>582</v>
@@ -5691,13 +5691,13 @@
         <v>176</v>
       </c>
       <c r="B173" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="C173" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="D173" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="E173" t="s">
         <v>583</v>
@@ -5725,13 +5725,13 @@
         <v>178</v>
       </c>
       <c r="B175" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="C175" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="D175" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="E175" t="s">
         <v>585</v>
@@ -5742,13 +5742,13 @@
         <v>179</v>
       </c>
       <c r="B176" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C176" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="D176" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="E176" t="s">
         <v>586</v>
@@ -5759,13 +5759,13 @@
         <v>180</v>
       </c>
       <c r="B177" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C177" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D177" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E177" t="s">
         <v>587</v>
@@ -5776,13 +5776,13 @@
         <v>181</v>
       </c>
       <c r="B178" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C178" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D178" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="E178" t="s">
         <v>588</v>
@@ -5793,13 +5793,13 @@
         <v>182</v>
       </c>
       <c r="B179" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C179" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="D179" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="E179" t="s">
         <v>589</v>
@@ -5810,13 +5810,13 @@
         <v>183</v>
       </c>
       <c r="B180" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="C180" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="D180" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="E180" t="s">
         <v>590</v>
@@ -5827,13 +5827,13 @@
         <v>184</v>
       </c>
       <c r="B181" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="C181" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="D181" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="E181" t="s">
         <v>591</v>
@@ -5844,13 +5844,13 @@
         <v>185</v>
       </c>
       <c r="B182" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C182" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D182" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="E182" t="s">
         <v>592</v>
@@ -5861,13 +5861,13 @@
         <v>186</v>
       </c>
       <c r="B183" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C183" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D183" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="E183" t="s">
         <v>593</v>
@@ -5878,13 +5878,13 @@
         <v>187</v>
       </c>
       <c r="B184" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="C184" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="D184" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="E184" t="s">
         <v>594</v>
@@ -5895,13 +5895,13 @@
         <v>188</v>
       </c>
       <c r="B185" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C185" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D185" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E185" t="s">
         <v>595</v>
@@ -5912,13 +5912,13 @@
         <v>189</v>
       </c>
       <c r="B186" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="C186" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="D186" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="E186" t="s">
         <v>596</v>
@@ -5929,13 +5929,13 @@
         <v>190</v>
       </c>
       <c r="B187" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C187" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D187" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="E187" t="s">
         <v>597</v>
@@ -5946,13 +5946,13 @@
         <v>191</v>
       </c>
       <c r="B188" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C188" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="D188" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="E188" t="s">
         <v>598</v>
@@ -5963,13 +5963,13 @@
         <v>192</v>
       </c>
       <c r="B189" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C189" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D189" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E189" t="s">
         <v>599</v>
@@ -5980,13 +5980,13 @@
         <v>193</v>
       </c>
       <c r="B190" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C190" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D190" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="E190" t="s">
         <v>600</v>
@@ -6014,13 +6014,13 @@
         <v>195</v>
       </c>
       <c r="B192" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="C192" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="D192" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="E192" t="s">
         <v>602</v>
@@ -6031,13 +6031,13 @@
         <v>196</v>
       </c>
       <c r="B193" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C193" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D193" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E193" t="s">
         <v>603</v>
@@ -6048,13 +6048,13 @@
         <v>197</v>
       </c>
       <c r="B194" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="C194" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="D194" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="E194" t="s">
         <v>604</v>
@@ -6065,13 +6065,13 @@
         <v>198</v>
       </c>
       <c r="B195" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C195" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D195" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E195" t="s">
         <v>605</v>
@@ -6082,13 +6082,13 @@
         <v>199</v>
       </c>
       <c r="B196" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="C196" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="D196" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="E196" t="s">
         <v>606</v>
@@ -6099,13 +6099,13 @@
         <v>200</v>
       </c>
       <c r="B197" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C197" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D197" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E197" t="s">
         <v>607</v>
@@ -6133,13 +6133,13 @@
         <v>202</v>
       </c>
       <c r="B199" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C199" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="D199" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="E199" t="s">
         <v>609</v>
@@ -6150,13 +6150,13 @@
         <v>203</v>
       </c>
       <c r="B200" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C200" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D200" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E200" t="s">
         <v>610</v>
@@ -6167,13 +6167,13 @@
         <v>204</v>
       </c>
       <c r="B201" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C201" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D201" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="E201" t="s">
         <v>611</v>
@@ -6184,13 +6184,13 @@
         <v>205</v>
       </c>
       <c r="B202" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="C202" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="D202" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="E202" t="s">
         <v>612</v>
@@ -6201,13 +6201,13 @@
         <v>206</v>
       </c>
       <c r="B203" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="C203" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="D203" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="E203" t="s">
         <v>613</v>
@@ -6218,13 +6218,13 @@
         <v>207</v>
       </c>
       <c r="B204" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C204" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D204" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E204" t="s">
         <v>614</v>
@@ -6252,13 +6252,13 @@
         <v>209</v>
       </c>
       <c r="B206" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C206" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="D206" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="E206" t="s">
         <v>616</v>
@@ -6286,13 +6286,13 @@
         <v>211</v>
       </c>
       <c r="B208" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="C208" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D208" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="E208" t="s">
         <v>618</v>
@@ -6303,13 +6303,13 @@
         <v>212</v>
       </c>
       <c r="B209" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="C209" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="D209" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="E209" t="s">
         <v>619</v>
@@ -6320,13 +6320,13 @@
         <v>213</v>
       </c>
       <c r="B210" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="C210" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="D210" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="E210" t="s">
         <v>620</v>
@@ -6337,13 +6337,13 @@
         <v>214</v>
       </c>
       <c r="B211" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C211" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D211" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E211" t="s">
         <v>621</v>
@@ -6354,13 +6354,13 @@
         <v>215</v>
       </c>
       <c r="B212" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="C212" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="D212" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="E212" t="s">
         <v>622</v>
@@ -6371,13 +6371,13 @@
         <v>216</v>
       </c>
       <c r="B213" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C213" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D213" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="E213" t="s">
         <v>623</v>
@@ -6388,13 +6388,13 @@
         <v>217</v>
       </c>
       <c r="B214" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="C214" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="D214" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="E214" t="s">
         <v>624</v>
@@ -6405,13 +6405,13 @@
         <v>218</v>
       </c>
       <c r="B215" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C215" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="D215" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="E215" t="s">
         <v>625</v>
@@ -6422,13 +6422,13 @@
         <v>219</v>
       </c>
       <c r="B216" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C216" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D216" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E216" t="s">
         <v>626</v>
@@ -6439,13 +6439,13 @@
         <v>220</v>
       </c>
       <c r="B217" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="C217" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="D217" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="E217" t="s">
         <v>627</v>
@@ -6456,13 +6456,13 @@
         <v>221</v>
       </c>
       <c r="B218" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C218" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D218" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="E218" t="s">
         <v>628</v>
@@ -6473,13 +6473,13 @@
         <v>222</v>
       </c>
       <c r="B219" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C219" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D219" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E219" t="s">
         <v>629</v>
@@ -6490,13 +6490,13 @@
         <v>223</v>
       </c>
       <c r="B220" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C220" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D220" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E220" t="s">
         <v>630</v>
@@ -6507,13 +6507,13 @@
         <v>224</v>
       </c>
       <c r="B221" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C221" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D221" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E221" t="s">
         <v>631</v>
@@ -6524,13 +6524,13 @@
         <v>225</v>
       </c>
       <c r="B222" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="C222" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="D222" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="E222" t="s">
         <v>632</v>
@@ -6558,13 +6558,13 @@
         <v>227</v>
       </c>
       <c r="B224" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C224" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D224" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E224" t="s">
         <v>634</v>
@@ -6575,13 +6575,13 @@
         <v>228</v>
       </c>
       <c r="B225" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="C225" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D225" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="E225" t="s">
         <v>635</v>
@@ -6592,13 +6592,13 @@
         <v>229</v>
       </c>
       <c r="B226" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="C226" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="D226" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="E226" t="s">
         <v>636</v>
@@ -6609,13 +6609,13 @@
         <v>230</v>
       </c>
       <c r="B227" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C227" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D227" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E227" t="s">
         <v>637</v>
@@ -6643,13 +6643,13 @@
         <v>232</v>
       </c>
       <c r="B229" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="C229" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="D229" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="E229" t="s">
         <v>639</v>
@@ -6677,13 +6677,13 @@
         <v>234</v>
       </c>
       <c r="B231" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="C231" t="s">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="D231" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="E231" t="s">
         <v>641</v>
@@ -6694,13 +6694,13 @@
         <v>235</v>
       </c>
       <c r="B232" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="C232" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="D232" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="E232" t="s">
         <v>642</v>
@@ -6711,13 +6711,13 @@
         <v>236</v>
       </c>
       <c r="B233" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C233" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D233" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E233" t="s">
         <v>643</v>
@@ -6728,13 +6728,13 @@
         <v>237</v>
       </c>
       <c r="B234" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="C234" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="D234" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="E234" t="s">
         <v>644</v>
@@ -6779,13 +6779,13 @@
         <v>240</v>
       </c>
       <c r="B237" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C237" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D237" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E237" t="s">
         <v>647</v>
@@ -6796,13 +6796,13 @@
         <v>241</v>
       </c>
       <c r="B238" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="C238" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="D238" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="E238" t="s">
         <v>648</v>
@@ -6813,13 +6813,13 @@
         <v>242</v>
       </c>
       <c r="B239" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="C239" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D239" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="E239" t="s">
         <v>649</v>
@@ -6830,13 +6830,13 @@
         <v>243</v>
       </c>
       <c r="B240" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="C240" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="D240" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="E240" t="s">
         <v>650</v>
@@ -6881,13 +6881,13 @@
         <v>246</v>
       </c>
       <c r="B243" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="C243" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="D243" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="E243" t="s">
         <v>653</v>
@@ -6898,13 +6898,13 @@
         <v>247</v>
       </c>
       <c r="B244" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="C244" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="D244" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="E244" t="s">
         <v>654</v>
@@ -6915,13 +6915,13 @@
         <v>248</v>
       </c>
       <c r="B245" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C245" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D245" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E245" t="s">
         <v>655</v>
@@ -6932,13 +6932,13 @@
         <v>249</v>
       </c>
       <c r="B246" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="C246" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="D246" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="E246" t="s">
         <v>656</v>
@@ -6949,13 +6949,13 @@
         <v>250</v>
       </c>
       <c r="B247" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="C247" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D247" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="E247" t="s">
         <v>657</v>
@@ -6966,13 +6966,13 @@
         <v>251</v>
       </c>
       <c r="B248" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="C248" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="D248" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="E248" t="s">
         <v>658</v>
@@ -7000,13 +7000,13 @@
         <v>253</v>
       </c>
       <c r="B250" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="C250" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="D250" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="E250" t="s">
         <v>660</v>
@@ -7017,13 +7017,13 @@
         <v>254</v>
       </c>
       <c r="B251" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="C251" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="D251" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="E251" t="s">
         <v>661</v>
@@ -7034,13 +7034,13 @@
         <v>255</v>
       </c>
       <c r="B252" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="C252" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="D252" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="E252" t="s">
         <v>662</v>
@@ -7051,13 +7051,13 @@
         <v>256</v>
       </c>
       <c r="B253" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C253" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D253" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E253" t="s">
         <v>663</v>
@@ -7068,13 +7068,13 @@
         <v>257</v>
       </c>
       <c r="B254" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="C254" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="D254" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="E254" t="s">
         <v>664</v>
@@ -7102,13 +7102,13 @@
         <v>259</v>
       </c>
       <c r="B256" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C256" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D256" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E256" t="s">
         <v>666</v>
@@ -7136,13 +7136,13 @@
         <v>261</v>
       </c>
       <c r="B258" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="C258" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="D258" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="E258" t="s">
         <v>668</v>
@@ -7153,13 +7153,13 @@
         <v>262</v>
       </c>
       <c r="B259" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C259" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D259" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="E259" t="s">
         <v>669</v>
@@ -7170,13 +7170,13 @@
         <v>263</v>
       </c>
       <c r="B260" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="C260" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D260" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="E260" t="s">
         <v>670</v>
@@ -7187,13 +7187,13 @@
         <v>264</v>
       </c>
       <c r="B261" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="C261" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="D261" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="E261" t="s">
         <v>671</v>
@@ -7204,13 +7204,13 @@
         <v>265</v>
       </c>
       <c r="B262" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C262" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D262" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E262" t="s">
         <v>672</v>
@@ -7238,13 +7238,13 @@
         <v>267</v>
       </c>
       <c r="B264" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="C264" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="D264" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="E264" t="s">
         <v>674</v>
@@ -7255,13 +7255,13 @@
         <v>268</v>
       </c>
       <c r="B265" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C265" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D265" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E265" t="s">
         <v>675</v>
@@ -7272,13 +7272,13 @@
         <v>269</v>
       </c>
       <c r="B266" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="C266" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D266" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="E266" t="s">
         <v>676</v>
@@ -7289,13 +7289,13 @@
         <v>270</v>
       </c>
       <c r="B267" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C267" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D267" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E267" t="s">
         <v>677</v>
@@ -7323,13 +7323,13 @@
         <v>272</v>
       </c>
       <c r="B269" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="C269" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="D269" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="E269" t="s">
         <v>679</v>
@@ -7340,13 +7340,13 @@
         <v>273</v>
       </c>
       <c r="B270" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C270" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D270" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E270" t="s">
         <v>680</v>
@@ -7357,13 +7357,13 @@
         <v>274</v>
       </c>
       <c r="B271" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="C271" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="D271" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="E271" t="s">
         <v>681</v>
@@ -7374,13 +7374,13 @@
         <v>275</v>
       </c>
       <c r="B272" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C272" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D272" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E272" t="s">
         <v>682</v>
@@ -7408,13 +7408,13 @@
         <v>277</v>
       </c>
       <c r="B274" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C274" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D274" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="E274" t="s">
         <v>684</v>
@@ -7425,13 +7425,13 @@
         <v>278</v>
       </c>
       <c r="B275" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="C275" t="s">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="D275" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="E275" t="s">
         <v>685</v>
@@ -7442,13 +7442,13 @@
         <v>279</v>
       </c>
       <c r="B276" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="C276" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="D276" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="E276" t="s">
         <v>686</v>
@@ -7459,13 +7459,13 @@
         <v>280</v>
       </c>
       <c r="B277" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="C277" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="D277" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="E277" t="s">
         <v>687</v>
@@ -7476,13 +7476,13 @@
         <v>281</v>
       </c>
       <c r="B278" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="C278" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="D278" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="E278" t="s">
         <v>688</v>
@@ -7510,13 +7510,13 @@
         <v>283</v>
       </c>
       <c r="B280" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C280" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D280" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E280" t="s">
         <v>690</v>
@@ -7629,13 +7629,13 @@
         <v>290</v>
       </c>
       <c r="B287" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C287" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D287" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="E287" t="s">
         <v>697</v>
@@ -7663,13 +7663,13 @@
         <v>292</v>
       </c>
       <c r="B289" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C289" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D289" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E289" t="s">
         <v>699</v>
@@ -7714,13 +7714,13 @@
         <v>295</v>
       </c>
       <c r="B292" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C292" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D292" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E292" t="s">
         <v>702</v>
@@ -7765,13 +7765,13 @@
         <v>298</v>
       </c>
       <c r="B295" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C295" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D295" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="E295" t="s">
         <v>705</v>
@@ -7850,13 +7850,13 @@
         <v>303</v>
       </c>
       <c r="B300" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C300" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D300" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E300" t="s">
         <v>710</v>
@@ -7901,13 +7901,13 @@
         <v>306</v>
       </c>
       <c r="B303" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C303" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D303" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E303" t="s">
         <v>713</v>
@@ -7952,13 +7952,13 @@
         <v>309</v>
       </c>
       <c r="B306" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="C306" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="D306" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="E306" t="s">
         <v>716</v>
@@ -7969,13 +7969,13 @@
         <v>310</v>
       </c>
       <c r="B307" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C307" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D307" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E307" t="s">
         <v>717</v>
@@ -7986,13 +7986,13 @@
         <v>311</v>
       </c>
       <c r="B308" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C308" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D308" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E308" t="s">
         <v>718</v>
@@ -8003,13 +8003,13 @@
         <v>312</v>
       </c>
       <c r="B309" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C309" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D309" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="E309" t="s">
         <v>719</v>
@@ -8037,13 +8037,13 @@
         <v>314</v>
       </c>
       <c r="B311" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="C311" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="D311" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="E311" t="s">
         <v>721</v>
@@ -8054,13 +8054,13 @@
         <v>315</v>
       </c>
       <c r="B312" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="C312" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="D312" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="E312" t="s">
         <v>722</v>
@@ -8071,13 +8071,13 @@
         <v>316</v>
       </c>
       <c r="B313" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C313" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D313" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E313" t="s">
         <v>723</v>
@@ -8088,13 +8088,13 @@
         <v>317</v>
       </c>
       <c r="B314" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="C314" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="D314" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="E314" t="s">
         <v>724</v>
@@ -8105,13 +8105,13 @@
         <v>318</v>
       </c>
       <c r="B315" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C315" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="D315" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="E315" t="s">
         <v>725</v>
@@ -8122,13 +8122,13 @@
         <v>319</v>
       </c>
       <c r="B316" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C316" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D316" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E316" t="s">
         <v>726</v>
@@ -8139,13 +8139,13 @@
         <v>320</v>
       </c>
       <c r="B317" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="C317" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="D317" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="E317" t="s">
         <v>727</v>
@@ -8156,13 +8156,13 @@
         <v>321</v>
       </c>
       <c r="B318" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="C318" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="D318" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="E318" t="s">
         <v>728</v>
@@ -8173,13 +8173,13 @@
         <v>322</v>
       </c>
       <c r="B319" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="C319" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="D319" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="E319" t="s">
         <v>729</v>
@@ -8190,13 +8190,13 @@
         <v>323</v>
       </c>
       <c r="B320" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="C320" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="D320" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="E320" t="s">
         <v>730</v>
@@ -8207,13 +8207,13 @@
         <v>324</v>
       </c>
       <c r="B321" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="C321" t="s">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="D321" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="E321" t="s">
         <v>731</v>
@@ -8224,13 +8224,13 @@
         <v>325</v>
       </c>
       <c r="B322" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C322" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D322" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="E322" t="s">
         <v>732</v>
@@ -8241,13 +8241,13 @@
         <v>326</v>
       </c>
       <c r="B323" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C323" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D323" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="E323" t="s">
         <v>733</v>
@@ -8258,13 +8258,13 @@
         <v>327</v>
       </c>
       <c r="B324" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="C324" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="D324" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="E324" t="s">
         <v>734</v>
@@ -8275,13 +8275,13 @@
         <v>328</v>
       </c>
       <c r="B325" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="C325" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="D325" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="E325" t="s">
         <v>735</v>
@@ -8292,13 +8292,13 @@
         <v>329</v>
       </c>
       <c r="B326" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="C326" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="D326" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="E326" t="s">
         <v>736</v>
@@ -8326,13 +8326,13 @@
         <v>331</v>
       </c>
       <c r="B328" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C328" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="D328" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E328" t="s">
         <v>738</v>
@@ -8343,13 +8343,13 @@
         <v>332</v>
       </c>
       <c r="B329" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="C329" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="D329" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="E329" t="s">
         <v>739</v>
@@ -8360,13 +8360,13 @@
         <v>333</v>
       </c>
       <c r="B330" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C330" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="D330" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="E330" t="s">
         <v>740</v>
@@ -8377,13 +8377,13 @@
         <v>334</v>
       </c>
       <c r="B331" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C331" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D331" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E331" t="s">
         <v>741</v>
@@ -8394,13 +8394,13 @@
         <v>335</v>
       </c>
       <c r="B332" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C332" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D332" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E332" t="s">
         <v>742</v>
@@ -8428,13 +8428,13 @@
         <v>337</v>
       </c>
       <c r="B334" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="C334" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="D334" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="E334" t="s">
         <v>744</v>
@@ -8445,13 +8445,13 @@
         <v>338</v>
       </c>
       <c r="B335" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C335" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D335" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="E335" t="s">
         <v>745</v>
@@ -8479,13 +8479,13 @@
         <v>340</v>
       </c>
       <c r="B337" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C337" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D337" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="E337" t="s">
         <v>747</v>
@@ -8496,13 +8496,13 @@
         <v>341</v>
       </c>
       <c r="B338" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="C338" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="D338" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="E338" t="s">
         <v>748</v>
@@ -8513,13 +8513,13 @@
         <v>342</v>
       </c>
       <c r="B339" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C339" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D339" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="E339" t="s">
         <v>749</v>
@@ -8530,13 +8530,13 @@
         <v>343</v>
       </c>
       <c r="B340" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C340" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D340" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="E340" t="s">
         <v>750</v>
@@ -8564,13 +8564,13 @@
         <v>345</v>
       </c>
       <c r="B342" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="C342" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="D342" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="E342" t="s">
         <v>752</v>
@@ -8581,13 +8581,13 @@
         <v>346</v>
       </c>
       <c r="B343" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C343" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D343" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E343" t="s">
         <v>753</v>
@@ -8615,13 +8615,13 @@
         <v>348</v>
       </c>
       <c r="B345" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="C345" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="D345" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="E345" t="s">
         <v>755</v>
@@ -8649,13 +8649,13 @@
         <v>350</v>
       </c>
       <c r="B347" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C347" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D347" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="E347" t="s">
         <v>757</v>
@@ -8666,13 +8666,13 @@
         <v>351</v>
       </c>
       <c r="B348" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="C348" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="D348" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="E348" t="s">
         <v>758</v>
@@ -8683,13 +8683,13 @@
         <v>352</v>
       </c>
       <c r="B349" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="C349" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D349" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="E349" t="s">
         <v>759</v>
@@ -8700,13 +8700,13 @@
         <v>353</v>
       </c>
       <c r="B350" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="C350" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="D350" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="E350" t="s">
         <v>760</v>
@@ -8717,13 +8717,13 @@
         <v>354</v>
       </c>
       <c r="B351" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C351" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D351" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="E351" t="s">
         <v>761</v>
@@ -8734,13 +8734,13 @@
         <v>355</v>
       </c>
       <c r="B352" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="C352" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="D352" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="E352" t="s">
         <v>762</v>
@@ -8751,13 +8751,13 @@
         <v>356</v>
       </c>
       <c r="B353" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C353" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D353" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="E353" t="s">
         <v>763</v>
@@ -8768,13 +8768,13 @@
         <v>357</v>
       </c>
       <c r="B354" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C354" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D354" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="E354" t="s">
         <v>764</v>
@@ -8785,13 +8785,13 @@
         <v>358</v>
       </c>
       <c r="B355" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C355" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D355" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="E355" t="s">
         <v>765</v>
@@ -8819,13 +8819,13 @@
         <v>360</v>
       </c>
       <c r="B357" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C357" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D357" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E357" t="s">
         <v>767</v>
@@ -8836,13 +8836,13 @@
         <v>361</v>
       </c>
       <c r="B358" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C358" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D358" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E358" t="s">
         <v>768</v>
@@ -8853,13 +8853,13 @@
         <v>362</v>
       </c>
       <c r="B359" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C359" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D359" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E359" t="s">
         <v>769</v>
@@ -8870,13 +8870,13 @@
         <v>363</v>
       </c>
       <c r="B360" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C360" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D360" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="E360" t="s">
         <v>770</v>
@@ -8887,13 +8887,13 @@
         <v>364</v>
       </c>
       <c r="B361" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C361" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="D361" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="E361" t="s">
         <v>771</v>
@@ -8904,13 +8904,13 @@
         <v>365</v>
       </c>
       <c r="B362" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="C362" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="D362" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="E362" t="s">
         <v>772</v>
@@ -8938,13 +8938,13 @@
         <v>367</v>
       </c>
       <c r="B364" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="C364" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="D364" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="E364" t="s">
         <v>774</v>
@@ -8955,13 +8955,13 @@
         <v>368</v>
       </c>
       <c r="B365" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C365" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D365" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E365" t="s">
         <v>775</v>
@@ -8972,13 +8972,13 @@
         <v>369</v>
       </c>
       <c r="B366" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C366" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D366" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E366" t="s">
         <v>776</v>
@@ -8989,13 +8989,13 @@
         <v>370</v>
       </c>
       <c r="B367" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C367" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D367" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="E367" t="s">
         <v>777</v>
@@ -9006,13 +9006,13 @@
         <v>371</v>
       </c>
       <c r="B368" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="C368" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="D368" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="E368" t="s">
         <v>778</v>
@@ -9040,13 +9040,13 @@
         <v>373</v>
       </c>
       <c r="B370" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="C370" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="D370" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="E370" t="s">
         <v>780</v>
@@ -9057,13 +9057,13 @@
         <v>374</v>
       </c>
       <c r="B371" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="C371" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="D371" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="E371" t="s">
         <v>781</v>
@@ -9074,13 +9074,13 @@
         <v>375</v>
       </c>
       <c r="B372" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C372" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D372" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="E372" t="s">
         <v>782</v>
@@ -9091,13 +9091,13 @@
         <v>376</v>
       </c>
       <c r="B373" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C373" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D373" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="E373" t="s">
         <v>783</v>
@@ -9142,13 +9142,13 @@
         <v>379</v>
       </c>
       <c r="B376" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C376" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D376" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E376" t="s">
         <v>786</v>
@@ -9159,13 +9159,13 @@
         <v>380</v>
       </c>
       <c r="B377" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C377" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D377" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E377" t="s">
         <v>787</v>
@@ -9210,13 +9210,13 @@
         <v>383</v>
       </c>
       <c r="B380" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C380" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D380" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E380" t="s">
         <v>790</v>
@@ -9227,13 +9227,13 @@
         <v>384</v>
       </c>
       <c r="B381" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C381" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D381" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E381" t="s">
         <v>791</v>
@@ -9244,13 +9244,13 @@
         <v>385</v>
       </c>
       <c r="B382" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C382" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D382" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E382" t="s">
         <v>792</v>
@@ -9261,13 +9261,13 @@
         <v>386</v>
       </c>
       <c r="B383" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C383" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D383" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E383" t="s">
         <v>793</v>
@@ -9278,13 +9278,13 @@
         <v>387</v>
       </c>
       <c r="B384" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C384" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D384" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E384" t="s">
         <v>794</v>
